--- a/biology/Médecine/1450_en_santé_et_médecine/1450_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1450_en_santé_et_médecine/1450_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1450_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1450_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1450 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1450_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1450_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Alphonse V, roi d'Aragon, de l'université de Barcelone qui comprend dès l'origine une chaire de médecine[1].
-À l'ouverture du St. Salvator's College (en), fondation de la faculté de médecine de l'université de Saint Andrews en Écosse[2].
-Le Parlement anglais restreint la pratique des barbiers à la saignée, à l'arrachage des dents et aux soins des cheveux, et il leur interdit de traiter les malades en danger de mort[3].
-Agnès Sorel, favorite du roi Charles VII, atteinte d'ascaridiose, meurt d'un empoisonnement au mercure, soit par « erreur de dosage médicamenteux », soit, beaucoup plus vraisemblablement, par un acte volontaire, meurtre ou suicide[4].
-Mention de Magister Salvatus, apothicaire le plus anciennement connu à Malte[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Alphonse V, roi d'Aragon, de l'université de Barcelone qui comprend dès l'origine une chaire de médecine.
+À l'ouverture du St. Salvator's College (en), fondation de la faculté de médecine de l'université de Saint Andrews en Écosse.
+Le Parlement anglais restreint la pratique des barbiers à la saignée, à l'arrachage des dents et aux soins des cheveux, et il leur interdit de traiter les malades en danger de mort.
+Agnès Sorel, favorite du roi Charles VII, atteinte d'ascaridiose, meurt d'un empoisonnement au mercure, soit par « erreur de dosage médicamenteux », soit, beaucoup plus vraisemblablement, par un acte volontaire, meurtre ou suicide.
+Mention de Magister Salvatus, apothicaire le plus anciennement connu à Malte.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1450_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1450_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +559,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jérôme Brunschwig (mort en 1512), apothicaire et chirurgien allemand, auteur d'un « Livre de chirurgie » (Das Buch der Cirurgia), imprimé à Strasbourg, chez Grüninger, en 1497[6].
-Andrea Alpago (mort vers 1521), médecin et arabisant italien[7].
-Girolamo Ramusio (mort vers 1486), humaniste et médecin italien[8].
-Vers 1450 : Francesco Caballus (mort en 1540), médecin italien, auteur d'un Libellus de animali pastillos theriacos et theriacam ingrediente, imprimé à Venise en 1497[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jérôme Brunschwig (mort en 1512), apothicaire et chirurgien allemand, auteur d'un « Livre de chirurgie » (Das Buch der Cirurgia), imprimé à Strasbourg, chez Grüninger, en 1497.
+Andrea Alpago (mort vers 1521), médecin et arabisant italien.
+Girolamo Ramusio (mort vers 1486), humaniste et médecin italien.
+Vers 1450 : Francesco Caballus (mort en 1540), médecin italien, auteur d'un Libellus de animali pastillos theriacos et theriacam ingrediente, imprimé à Venise en 1497.</t>
         </is>
       </c>
     </row>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1450_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1450_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers 1450 : Thomas Morstede (né vers 1380), chirurgien au service d'Henri V, roi d'Angleterre[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1450 : Thomas Morstede (né vers 1380), chirurgien au service d'Henri V, roi d'Angleterre.
 </t>
         </is>
       </c>
